--- a/diary/2017-3-6(L).xlsx
+++ b/diary/2017-3-6(L).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>P</t>
   </si>
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>小黃瓜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘋果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -489,7 +485,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -533,7 +529,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>12.7</v>
@@ -547,7 +543,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>4.9000000000000004</v>
@@ -561,7 +557,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>3.9</v>
@@ -575,7 +571,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>12.6</v>
@@ -592,7 +588,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>14.5</v>
@@ -620,7 +616,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>2.2999999999999998</v>
@@ -640,11 +636,6 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
